--- a/data/trans_orig/Q17F_D_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 20,43</t>
+          <t>6,88; 19,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,92; 16,37</t>
+          <t>5,15; 17,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 15,87</t>
+          <t>4,82; 17,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 39,15</t>
+          <t>17,88; 37,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 31,69</t>
+          <t>7,49; 32,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 18,27</t>
+          <t>3,36; 14,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 15,47</t>
+          <t>5,65; 16,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,18; 33,34</t>
+          <t>15,81; 32,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,83; 21,93</t>
+          <t>8,61; 21,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 12,76</t>
+          <t>5,28; 13,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,98; 13,63</t>
+          <t>6,14; 13,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 32,35</t>
+          <t>18,98; 32,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 13,81</t>
+          <t>4,34; 15,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 11,61</t>
+          <t>3,2; 12,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 18,97</t>
+          <t>4,33; 20,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 44,62</t>
+          <t>14,81; 41,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 11,33</t>
+          <t>4,37; 11,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 24,74</t>
+          <t>4,66; 22,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 66,83</t>
+          <t>11,97; 64,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 18,98</t>
+          <t>9,59; 18,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 10,68</t>
+          <t>4,77; 10,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 15,07</t>
+          <t>4,91; 14,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 34,55</t>
+          <t>9,85; 34,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 28,43</t>
+          <t>13,76; 27,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 13,82</t>
+          <t>6,08; 13,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 21,93</t>
+          <t>10,14; 22,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 13,0</t>
+          <t>4,35; 12,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 33,74</t>
+          <t>10,4; 34,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 15,33</t>
+          <t>4,08; 16,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 13,31</t>
+          <t>4,04; 12,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 24,01</t>
+          <t>5,97; 23,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 56,7</t>
+          <t>14,51; 61,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 12,45</t>
+          <t>6,36; 12,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 16,33</t>
+          <t>8,68; 16,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 12,73</t>
+          <t>5,24; 13,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,22; 36,04</t>
+          <t>14,01; 36,62</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 15,58</t>
+          <t>7,33; 15,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 15,15</t>
+          <t>7,62; 14,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,82; 17,54</t>
+          <t>8,51; 17,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,7; 25,9</t>
+          <t>13,37; 25,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 19,12</t>
+          <t>7,45; 18,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 15,63</t>
+          <t>6,48; 14,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 31,43</t>
+          <t>10,39; 31,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 30,17</t>
+          <t>16,5; 31,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,04; 14,53</t>
+          <t>8,06; 14,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 13,19</t>
+          <t>8,03; 13,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,5; 22,15</t>
+          <t>10,56; 22,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 25,26</t>
+          <t>16,12; 25,06</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 53,59</t>
+          <t>5,83; 50,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,07</t>
+          <t>3,85; 9,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 19,55</t>
+          <t>7,96; 20,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,26; 87,5</t>
+          <t>19,81; 90,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,93; 15,23</t>
+          <t>5,8; 15,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,19; 15,18</t>
+          <t>6,2; 14,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 20,01</t>
+          <t>8,96; 20,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,76; 31,41</t>
+          <t>10,69; 30,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 20,18</t>
+          <t>7,69; 20,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 12,83</t>
+          <t>6,1; 12,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,38; 16,9</t>
+          <t>9,63; 18,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,8; 40,32</t>
+          <t>15,16; 39,3</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,74</t>
+          <t>1,81; 8,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 13,8</t>
+          <t>2,63; 13,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 12,45</t>
+          <t>2,5; 11,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 36,82</t>
+          <t>3,22; 37,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,39; 11,21</t>
+          <t>5,27; 11,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,84; 17,69</t>
+          <t>8,76; 17,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 15,34</t>
+          <t>8,23; 15,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,15; 28,37</t>
+          <t>14,65; 28,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,4</t>
+          <t>5,33; 10,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,18; 16,07</t>
+          <t>8,58; 16,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 14,36</t>
+          <t>7,88; 14,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,55; 27,27</t>
+          <t>14,45; 27,24</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,12; 14,54</t>
+          <t>8,1; 14,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,15</t>
+          <t>8,24; 12,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,55</t>
+          <t>8,15; 12,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,86; 31,47</t>
+          <t>18,91; 30,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,57; 11,53</t>
+          <t>7,54; 11,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,23; 12,4</t>
+          <t>8,22; 12,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 17,92</t>
+          <t>10,98; 17,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,81; 24,88</t>
+          <t>16,35; 24,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,3; 11,42</t>
+          <t>8,31; 11,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,61; 11,57</t>
+          <t>8,72; 11,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,77</t>
+          <t>10,4; 14,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,77; 25,63</t>
+          <t>18,52; 25,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q17F_D_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
